--- a/data/trans_orig/P05A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>401180</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>384382</v>
+        <v>384117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>416884</v>
+        <v>417731</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8218406080053446</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7874299644560347</v>
+        <v>0.7868872188131549</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8540112099499163</v>
+        <v>0.8557474821272028</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>403</v>
@@ -765,19 +765,19 @@
         <v>384046</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>367566</v>
+        <v>369154</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>399998</v>
+        <v>401245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8266605525540698</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.791188409646017</v>
+        <v>0.7946055516917148</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8609975652795204</v>
+        <v>0.8636823142628905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>807</v>
@@ -786,19 +786,19 @@
         <v>785226</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>759245</v>
+        <v>761270</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>806200</v>
+        <v>806716</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8241909510548707</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7969211141777117</v>
+        <v>0.7990462968986247</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8462057626340681</v>
+        <v>0.8467475244049592</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>70243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55402</v>
+        <v>56373</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86020</v>
+        <v>87265</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1438978562963045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1134952290178148</v>
+        <v>0.1154838133748085</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.176216253243275</v>
+        <v>0.1787669341882451</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -836,19 +836,19 @@
         <v>70909</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56086</v>
+        <v>56147</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87238</v>
+        <v>86265</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1526322710193047</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1207259648204719</v>
+        <v>0.1208568809957244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1877802494552169</v>
+        <v>0.1856851468539899</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>144</v>
@@ -857,19 +857,19 @@
         <v>141153</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>121865</v>
+        <v>121714</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>165598</v>
+        <v>165577</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1481570071492561</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1279125397039261</v>
+        <v>0.1277537631479982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1738159018754432</v>
+        <v>0.1737931806690675</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>16725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10225</v>
+        <v>9992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25808</v>
+        <v>25477</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03426153569835087</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02094622099791857</v>
+        <v>0.02047020497066068</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05286882758614476</v>
+        <v>0.052190998127608</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -907,19 +907,19 @@
         <v>9620</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4726</v>
+        <v>5035</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16565</v>
+        <v>17436</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02070717642662555</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01017310259831612</v>
+        <v>0.01083688229794075</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03565642438674978</v>
+        <v>0.03753064743076848</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -928,19 +928,19 @@
         <v>26345</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17545</v>
+        <v>18184</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>36953</v>
+        <v>37632</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02765204179587316</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01841550883763774</v>
+        <v>0.01908672038897559</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03878636459906177</v>
+        <v>0.03949959890273978</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>606210</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>585281</v>
+        <v>585722</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>626745</v>
+        <v>625564</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8322913135097244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8035562694713506</v>
+        <v>0.8041622245979297</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8604848378334259</v>
+        <v>0.8588626044589336</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -1053,19 +1053,19 @@
         <v>496376</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474430</v>
+        <v>474044</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>515728</v>
+        <v>516360</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7965189975707071</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7613030982036104</v>
+        <v>0.7606834986510599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8275730151981924</v>
+        <v>0.8285876139762494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1050</v>
@@ -1074,19 +1074,19 @@
         <v>1102586</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1072948</v>
+        <v>1073881</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1130348</v>
+        <v>1130090</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.815797122901177</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7938684975305881</v>
+        <v>0.7945582983285867</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.836338297857296</v>
+        <v>0.8361475006374789</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>103269</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>83507</v>
+        <v>85798</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>122880</v>
+        <v>123432</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1417825982349625</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.114649864090188</v>
+        <v>0.1177954829885914</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1687065496802024</v>
+        <v>0.1694653655700095</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>97</v>
@@ -1124,19 +1124,19 @@
         <v>105851</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>88473</v>
+        <v>87095</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>124812</v>
+        <v>125393</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1698554152858751</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1419706729423817</v>
+        <v>0.1397595360151397</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2002816630162662</v>
+        <v>0.201214829112364</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>198</v>
@@ -1145,19 +1145,19 @@
         <v>209120</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>183743</v>
+        <v>184043</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>238472</v>
+        <v>238915</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1547266412246866</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1359503796907635</v>
+        <v>0.1361726647527041</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.176444191677081</v>
+        <v>0.1767715748129298</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>18884</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11577</v>
+        <v>11189</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28591</v>
+        <v>28451</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02592608825531309</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01589443882230516</v>
+        <v>0.01536242022247816</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03925401651644354</v>
+        <v>0.03906103279821709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1195,19 +1195,19 @@
         <v>20955</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12972</v>
+        <v>12374</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32091</v>
+        <v>31768</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03362558714341782</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02081550466789481</v>
+        <v>0.01985690643376089</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05149583942146291</v>
+        <v>0.05097720198758847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1216,19 +1216,19 @@
         <v>39838</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28412</v>
+        <v>29448</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54417</v>
+        <v>53232</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02947623587413642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02102207092831555</v>
+        <v>0.02178827210530265</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04026310139235564</v>
+        <v>0.03938610409393286</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>520850</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>501147</v>
+        <v>499724</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>540293</v>
+        <v>539871</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8221556502100636</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7910542826030024</v>
+        <v>0.7888082668344707</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8528451692620819</v>
+        <v>0.8521801779417939</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>535</v>
@@ -1341,19 +1341,19 @@
         <v>559623</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>539788</v>
+        <v>537385</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>579170</v>
+        <v>579633</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8151777214655145</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.78628555432403</v>
+        <v>0.7827851686264167</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8436506612791363</v>
+        <v>0.8443254137836987</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1037</v>
@@ -1362,19 +1362,19 @@
         <v>1080474</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1049243</v>
+        <v>1049141</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1107233</v>
+        <v>1105698</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8185266377371084</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7948673836468733</v>
+        <v>0.7947901901652181</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8387985958563252</v>
+        <v>0.8376356845781836</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>91422</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75454</v>
+        <v>74997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109538</v>
+        <v>109566</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1443090156146859</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1191036548360589</v>
+        <v>0.1183819272901411</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1729046238847222</v>
+        <v>0.1729478745672383</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -1412,19 +1412,19 @@
         <v>101618</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84612</v>
+        <v>83595</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121056</v>
+        <v>121501</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1480227308604284</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1232507997244897</v>
+        <v>0.1217696361223505</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1763371142612347</v>
+        <v>0.1769844330820963</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>184</v>
@@ -1433,19 +1433,19 @@
         <v>193041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>167889</v>
+        <v>170387</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>223363</v>
+        <v>222062</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1462404080724165</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1271861438111654</v>
+        <v>0.1290786011396369</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1692114499247409</v>
+        <v>0.1682260857471721</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>21245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13318</v>
+        <v>12562</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33800</v>
+        <v>32976</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03353533417525049</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02102272486286159</v>
+        <v>0.01982874666262241</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0533534505552875</v>
+        <v>0.05205271300657324</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -1483,19 +1483,19 @@
         <v>25263</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17034</v>
+        <v>16449</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36416</v>
+        <v>36763</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0367995476740571</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02481308139068464</v>
+        <v>0.023961000131618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05304523649509085</v>
+        <v>0.05355140197448702</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -1504,19 +1504,19 @@
         <v>46508</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33972</v>
+        <v>34444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>62072</v>
+        <v>61594</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03523295419047513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0257360225159749</v>
+        <v>0.026093356192688</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04702309125378979</v>
+        <v>0.04666155756224828</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>426108</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>406624</v>
+        <v>407273</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>442107</v>
+        <v>442328</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8223609386551473</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7847589095942122</v>
+        <v>0.7860114494338487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8532389470991718</v>
+        <v>0.8536650055329875</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>407</v>
@@ -1629,19 +1629,19 @@
         <v>415584</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>395424</v>
+        <v>395537</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>431465</v>
+        <v>431775</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8140473558221609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7745575178749595</v>
+        <v>0.7747796966007775</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8451548279197134</v>
+        <v>0.8457613752494099</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>805</v>
@@ -1650,19 +1650,19 @@
         <v>841692</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>814359</v>
+        <v>813375</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>866231</v>
+        <v>866072</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8182350058569033</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7916639492268105</v>
+        <v>0.7907066536069457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8420901815603229</v>
+        <v>0.8419352592912307</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>81638</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65463</v>
+        <v>65945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98897</v>
+        <v>100354</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1575566922016214</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1263398063930415</v>
+        <v>0.1272688380364516</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1908653403351679</v>
+        <v>0.1936764145652331</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>77</v>
@@ -1700,19 +1700,19 @@
         <v>81601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>66179</v>
+        <v>65970</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>99697</v>
+        <v>100517</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1598392812939944</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.129632146118534</v>
+        <v>0.1292228773790261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1952870957443596</v>
+        <v>0.196893283474284</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>152</v>
@@ -1721,19 +1721,19 @@
         <v>163239</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>140432</v>
+        <v>140359</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>188040</v>
+        <v>189838</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1586895141618198</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1365186540498267</v>
+        <v>0.1364468604766632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1827993999919975</v>
+        <v>0.1845472081702491</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>10406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5682</v>
+        <v>5460</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19624</v>
+        <v>19238</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02008236914323135</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01096579532264867</v>
+        <v>0.01053712781047529</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03787241276119244</v>
+        <v>0.03712772942080363</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -1771,19 +1771,19 @@
         <v>13331</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7088</v>
+        <v>7862</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22343</v>
+        <v>22551</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02611336288384469</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01388401750138889</v>
+        <v>0.01540080112440586</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04376528718049405</v>
+        <v>0.04417296774737806</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>23</v>
@@ -1792,19 +1792,19 @@
         <v>23737</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14664</v>
+        <v>15617</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34534</v>
+        <v>35979</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02307547998127686</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01425536997045707</v>
+        <v>0.01518128548609873</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0335717122384193</v>
+        <v>0.03497644595068371</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>309631</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>293281</v>
+        <v>293393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>323909</v>
+        <v>323600</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8074199190313369</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7647833418046709</v>
+        <v>0.765075174966655</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8446530147255713</v>
+        <v>0.8438454873529732</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>327</v>
@@ -1917,19 +1917,19 @@
         <v>332355</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>316756</v>
+        <v>314384</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>347097</v>
+        <v>346730</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8267966416449373</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.787990439234463</v>
+        <v>0.7820917914524879</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8634694531517012</v>
+        <v>0.8625568724814124</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>640</v>
@@ -1938,19 +1938,19 @@
         <v>641986</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>622020</v>
+        <v>621270</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>662069</v>
+        <v>662919</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8173364259270752</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7919166826868478</v>
+        <v>0.790962095792904</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8429048915780938</v>
+        <v>0.8439868751046627</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>61013</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>47888</v>
+        <v>47763</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>75578</v>
+        <v>75320</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1591038590480018</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1248756501370391</v>
+        <v>0.1245507630992417</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1970824903394884</v>
+        <v>0.1964105273416369</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -1988,19 +1988,19 @@
         <v>56949</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>43533</v>
+        <v>44543</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>71546</v>
+        <v>72449</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.141670681731301</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1082964767357598</v>
+        <v>0.1108090026999149</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1779847260944086</v>
+        <v>0.1802301708502062</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>118</v>
@@ -2009,19 +2009,19 @@
         <v>117962</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>99167</v>
+        <v>98920</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>138636</v>
+        <v>137617</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1501820085099572</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1262530152896159</v>
+        <v>0.125939007796379</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1765026125043684</v>
+        <v>0.1752052908254486</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>12838</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7001</v>
+        <v>7519</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21838</v>
+        <v>20885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03347622192066124</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0182559807290013</v>
+        <v>0.01960677012979793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05694682797372943</v>
+        <v>0.05446254745926322</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2059,19 +2059,19 @@
         <v>12675</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6641</v>
+        <v>6903</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21901</v>
+        <v>21850</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03153267662376175</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01651975598304743</v>
+        <v>0.01717333016586921</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05448285972917222</v>
+        <v>0.05435599734652231</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -2080,19 +2080,19 @@
         <v>25513</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17303</v>
+        <v>16549</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36453</v>
+        <v>37707</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03248156556296761</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02202913388343247</v>
+        <v>0.02106873500238166</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04640983007344038</v>
+        <v>0.04800560333223861</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>244820</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>231760</v>
+        <v>231365</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>256512</v>
+        <v>255215</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.843476972887043</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7984815686695641</v>
+        <v>0.7971211131785131</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8837603807941242</v>
+        <v>0.8792902535252506</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>314</v>
@@ -2205,19 +2205,19 @@
         <v>289476</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>274595</v>
+        <v>275974</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>301501</v>
+        <v>300691</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8465400063217331</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8030207386031003</v>
+        <v>0.8070548746493144</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8817048876451714</v>
+        <v>0.8793360933059161</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>568</v>
@@ -2226,19 +2226,19 @@
         <v>534296</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>515122</v>
+        <v>516350</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>549988</v>
+        <v>551458</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8451337362860512</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8148042250165702</v>
+        <v>0.8167466997622082</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8699543711934719</v>
+        <v>0.8722793512735699</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>37360</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27480</v>
+        <v>27680</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50168</v>
+        <v>50088</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1287169854759251</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0946759752119931</v>
+        <v>0.09536519446958243</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1728451792164711</v>
+        <v>0.1725674044573622</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -2276,19 +2276,19 @@
         <v>41891</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31875</v>
+        <v>31385</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55248</v>
+        <v>53373</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1225051056386431</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09321537238275623</v>
+        <v>0.09178254980833307</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1615662202842385</v>
+        <v>0.1560820275807699</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>84</v>
@@ -2297,19 +2297,19 @@
         <v>79251</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>62935</v>
+        <v>64614</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95510</v>
+        <v>95786</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1253570433228658</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09954836802302239</v>
+        <v>0.1022038757336655</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1510744474768787</v>
+        <v>0.1515120971929523</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>8071</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3331</v>
+        <v>3847</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14951</v>
+        <v>15645</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02780604163703186</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01147707017088522</v>
+        <v>0.01325458373450416</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0515089335249768</v>
+        <v>0.05389994916848762</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -2347,19 +2347,19 @@
         <v>10585</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5468</v>
+        <v>5760</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18469</v>
+        <v>19372</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0309548880396238</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0159905559999111</v>
+        <v>0.01684457892591916</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05401036970863822</v>
+        <v>0.05665173611864315</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -2368,19 +2368,19 @@
         <v>18656</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11141</v>
+        <v>11047</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27857</v>
+        <v>28285</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02950922039108308</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01762327348667231</v>
+        <v>0.01747353883782886</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04406290049506752</v>
+        <v>0.04474080622427348</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>176059</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>164918</v>
+        <v>164955</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>185146</v>
+        <v>184575</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8459551959667346</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7924205898743674</v>
+        <v>0.7925972466882993</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8896180558633899</v>
+        <v>0.8868713519668319</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>244</v>
@@ -2493,19 +2493,19 @@
         <v>280066</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>264177</v>
+        <v>264665</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>293537</v>
+        <v>292442</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8416939153980467</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7939407636106719</v>
+        <v>0.7954072162038155</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8821791843687771</v>
+        <v>0.8788887119800185</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>428</v>
@@ -2514,19 +2514,19 @@
         <v>456125</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>437501</v>
+        <v>436576</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>471920</v>
+        <v>472416</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.843333626345772</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.808899357563842</v>
+        <v>0.8071890601740603</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8725366401471747</v>
+        <v>0.8734538864856489</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>30438</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21424</v>
+        <v>22364</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41462</v>
+        <v>42400</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1462528536050282</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1029395359909611</v>
+        <v>0.1074584877560132</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.19922104745248</v>
+        <v>0.2037300270770113</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>40</v>
@@ -2564,19 +2564,19 @@
         <v>46908</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33834</v>
+        <v>34656</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>61755</v>
+        <v>61250</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1409740829059858</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1016821937231377</v>
+        <v>0.1041528944146562</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.185595655419032</v>
+        <v>0.1840780310532035</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>72</v>
@@ -2585,19 +2585,19 @@
         <v>77346</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>61072</v>
+        <v>62488</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>95187</v>
+        <v>96436</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1430053169367496</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1129173812288927</v>
+        <v>0.115535434746327</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1759919133057517</v>
+        <v>0.1783007777144271</v>
       </c>
     </row>
     <row r="30">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5708</v>
+        <v>6117</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.007791950428237096</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0274283800036782</v>
+        <v>0.02939271604298874</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -2635,19 +2635,19 @@
         <v>5767</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2254</v>
+        <v>2302</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12704</v>
+        <v>13890</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01733200169596742</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.006772943220339345</v>
+        <v>0.006919467796154595</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0381804110935087</v>
+        <v>0.04174300119387268</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -2656,19 +2656,19 @@
         <v>7389</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3099</v>
+        <v>3201</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>14341</v>
+        <v>14517</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01366105671747832</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.005729238121377361</v>
+        <v>0.005917964891682003</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02651590564956264</v>
+        <v>0.0268399471231657</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>2684860</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2642955</v>
+        <v>2635690</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2728616</v>
+        <v>2728037</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8261020120350301</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8132082666673971</v>
+        <v>0.810972800545828</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8395650107940882</v>
+        <v>0.8393869898028913</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2703</v>
@@ -2781,19 +2781,19 @@
         <v>2757525</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2710256</v>
+        <v>2714539</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2803989</v>
+        <v>2804326</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8203385294266066</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.806276319664555</v>
+        <v>0.8075506388636946</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8341609141896589</v>
+        <v>0.8342614265895408</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5335</v>
@@ -2802,19 +2802,19 @@
         <v>5442386</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5377395</v>
+        <v>5382809</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5504750</v>
+        <v>5504000</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8231717088889045</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8133417683983388</v>
+        <v>0.814160589373249</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8326043596598954</v>
+        <v>0.8324910371189155</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>475385</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>436145</v>
+        <v>436595</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>512932</v>
+        <v>521859</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1462708308913893</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1341969755421832</v>
+        <v>0.1343354929857836</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1578234705935006</v>
+        <v>0.1605704185221701</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>483</v>
@@ -2852,19 +2852,19 @@
         <v>505726</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>463762</v>
+        <v>465847</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>548421</v>
+        <v>544982</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1504488158806443</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1379650438087042</v>
+        <v>0.1385852924144979</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1631501523775635</v>
+        <v>0.1621271604832091</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>952</v>
@@ -2873,19 +2873,19 @@
         <v>981111</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>923781</v>
+        <v>923661</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>1042122</v>
+        <v>1036692</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1483950261723096</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1397237903119491</v>
+        <v>0.1397056120939882</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1576229792870585</v>
+        <v>0.1568017882641656</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>89789</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>72249</v>
+        <v>73604</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>107728</v>
+        <v>112933</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0276271570735806</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02223019340301642</v>
+        <v>0.02264711734809876</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03314671858759367</v>
+        <v>0.03474811192282472</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>94</v>
@@ -2923,19 +2923,19 @@
         <v>98197</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>79264</v>
+        <v>78883</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>119194</v>
+        <v>119193</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02921265469274908</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02358026303104099</v>
+        <v>0.02346692543884271</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03545922112115256</v>
+        <v>0.03545878890572022</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>182</v>
@@ -2944,19 +2944,19 @@
         <v>187986</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>160918</v>
+        <v>162873</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>216036</v>
+        <v>218939</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02843326493878588</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02433915310034036</v>
+        <v>0.02463487894411803</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03267589258653186</v>
+        <v>0.03311502775693384</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>390936</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>374343</v>
+        <v>375278</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>404057</v>
+        <v>403173</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8702494726205193</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.833312708776735</v>
+        <v>0.8353936030265173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8994579752513799</v>
+        <v>0.8974901535714573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>374</v>
@@ -3312,19 +3312,19 @@
         <v>381105</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>367634</v>
+        <v>366524</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>393432</v>
+        <v>391035</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8959632943971344</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8642937878096711</v>
+        <v>0.8616825925788134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9249424933934348</v>
+        <v>0.9193081079590526</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>757</v>
@@ -3333,19 +3333,19 @@
         <v>772041</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>751502</v>
+        <v>748258</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>790206</v>
+        <v>789845</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8827555580422548</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8592710583729034</v>
+        <v>0.8555616454263474</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9035252789136247</v>
+        <v>0.9031126235976576</v>
       </c>
     </row>
     <row r="5">
@@ -3362,19 +3362,19 @@
         <v>51101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39030</v>
+        <v>38726</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>66534</v>
+        <v>66690</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1137551144552942</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08688225262339674</v>
+        <v>0.0862060204031088</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1481084233604411</v>
+        <v>0.1484554067008819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -3383,19 +3383,19 @@
         <v>36828</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26204</v>
+        <v>27182</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49347</v>
+        <v>48451</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08658227240774166</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06160496149017454</v>
+        <v>0.06390305602942685</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.116013828371124</v>
+        <v>0.1139057936709468</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>87</v>
@@ -3404,19 +3404,19 @@
         <v>87930</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71508</v>
+        <v>71887</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107245</v>
+        <v>109739</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1005394249809639</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08176241754186253</v>
+        <v>0.08219649304202879</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1226247394698352</v>
+        <v>0.1254761652431949</v>
       </c>
     </row>
     <row r="6">
@@ -3433,19 +3433,19 @@
         <v>7186</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3220</v>
+        <v>3136</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14453</v>
+        <v>14525</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01599541292418651</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00716808005488623</v>
+        <v>0.006981986804483525</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03217311793158133</v>
+        <v>0.03233355418750494</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -3454,19 +3454,19 @@
         <v>7424</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2699</v>
+        <v>2764</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15727</v>
+        <v>15386</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01745443319512392</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006345241375003561</v>
+        <v>0.006497787778436282</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0369737934585547</v>
+        <v>0.03617249612065945</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -3475,19 +3475,19 @@
         <v>14610</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8045</v>
+        <v>7916</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24042</v>
+        <v>25011</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01670501697678133</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009199117011044707</v>
+        <v>0.009051229289795322</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02748950038887765</v>
+        <v>0.02859775893532187</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>593823</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>574826</v>
+        <v>573030</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>609953</v>
+        <v>609150</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8714320399664869</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8435532732342624</v>
+        <v>0.8409180067305464</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8951026135274501</v>
+        <v>0.8939242129836942</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>492</v>
@@ -3600,19 +3600,19 @@
         <v>524591</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>508258</v>
+        <v>505141</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>541479</v>
+        <v>540239</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8667503523361038</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8397645972224514</v>
+        <v>0.8346139699907317</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.894653118799938</v>
+        <v>0.8926036505294046</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1070</v>
@@ -3621,19 +3621,19 @@
         <v>1118415</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1090334</v>
+        <v>1091367</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1141136</v>
+        <v>1143846</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8692298168777945</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8474059989382855</v>
+        <v>0.848208878511061</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8868885142783988</v>
+        <v>0.8889953660478335</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>71361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>57614</v>
+        <v>57356</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>90995</v>
+        <v>89432</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1047218397258791</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08454812741056804</v>
+        <v>0.08416953372342464</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1335339939335802</v>
+        <v>0.1312405674003702</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>65</v>
@@ -3671,19 +3671,19 @@
         <v>71237</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>55160</v>
+        <v>56458</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>87189</v>
+        <v>90831</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1177010383107036</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09113780477343014</v>
+        <v>0.09328185007472063</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1440566733571983</v>
+        <v>0.1500746086197561</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>133</v>
@@ -3692,19 +3692,19 @@
         <v>142598</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>121139</v>
+        <v>120043</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>168269</v>
+        <v>168187</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1108271361601659</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0941491238416003</v>
+        <v>0.0932968539320623</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1307781237864371</v>
+        <v>0.1307145784966631</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>16250</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9627</v>
+        <v>9969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24523</v>
+        <v>26540</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02384612030763406</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01412782297075837</v>
+        <v>0.01462982013840047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03598690219288241</v>
+        <v>0.03894773562683877</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3742,19 +3742,19 @@
         <v>9411</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4611</v>
+        <v>4502</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16399</v>
+        <v>16858</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01554860935319266</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007618932591508407</v>
+        <v>0.007438704230132414</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02709494282783601</v>
+        <v>0.02785353125382483</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -3763,19 +3763,19 @@
         <v>25660</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16982</v>
+        <v>16908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39091</v>
+        <v>36824</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01994304696203951</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01319838917264855</v>
+        <v>0.01314092003530556</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03038128954840793</v>
+        <v>0.02861939549670408</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>584474</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>565096</v>
+        <v>561883</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>603160</v>
+        <v>601019</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8632166424784096</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8345958187805046</v>
+        <v>0.829851032880626</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8908129777040285</v>
+        <v>0.8876520925342195</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>567</v>
@@ -3888,19 +3888,19 @@
         <v>605405</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>586539</v>
+        <v>585096</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>623223</v>
+        <v>621909</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8625009656717282</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.835623783338453</v>
+        <v>0.8335671754144628</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.887886175997412</v>
+        <v>0.8860139737809157</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1128</v>
@@ -3909,19 +3909,19 @@
         <v>1189879</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1159804</v>
+        <v>1163639</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1214289</v>
+        <v>1214600</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8628523612045725</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8410433752562547</v>
+        <v>0.8438246478621805</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8805540913980302</v>
+        <v>0.8807794190960112</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>73145</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54877</v>
+        <v>57295</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89731</v>
+        <v>92170</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1080283515441884</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08104839807425258</v>
+        <v>0.08462023977607418</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1325253483651214</v>
+        <v>0.1361264147385846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -3959,19 +3959,19 @@
         <v>77783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62977</v>
+        <v>61735</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93942</v>
+        <v>96597</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1108154366176599</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08972111694030938</v>
+        <v>0.08795225465221711</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1338361561042506</v>
+        <v>0.1376191591550155</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>144</v>
@@ -3980,19 +3980,19 @@
         <v>150928</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>128957</v>
+        <v>128579</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>179201</v>
+        <v>175606</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1094469847755269</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09351467050359862</v>
+        <v>0.09324000529104466</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1299493537084932</v>
+        <v>0.1273423999077163</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>19470</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11364</v>
+        <v>11347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30748</v>
+        <v>31971</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02875500597740204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01678349922966927</v>
+        <v>0.01675780579193792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04541145490411075</v>
+        <v>0.04721812180537683</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -4030,19 +4030,19 @@
         <v>18730</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11306</v>
+        <v>11425</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29966</v>
+        <v>30063</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02668359771061201</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01610741973456224</v>
+        <v>0.01627735864379456</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04269134029931016</v>
+        <v>0.04283046210328585</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -4051,19 +4051,19 @@
         <v>38199</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26943</v>
+        <v>26825</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53397</v>
+        <v>53179</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02770065401990061</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01953818604533487</v>
+        <v>0.01945245368610415</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03872168464996269</v>
+        <v>0.03856316824086092</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>524829</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>504109</v>
+        <v>504911</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>542710</v>
+        <v>543302</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8595828395919645</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8256476368196177</v>
+        <v>0.8269615324672291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8888695598594193</v>
+        <v>0.8898390659778436</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>468</v>
@@ -4176,19 +4176,19 @@
         <v>534734</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>516849</v>
+        <v>516627</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>551213</v>
+        <v>551541</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8770320942648721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8476972000511677</v>
+        <v>0.8473344922354635</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9040585403306722</v>
+        <v>0.904596613951727</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>938</v>
@@ -4197,19 +4197,19 @@
         <v>1059562</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1030321</v>
+        <v>1033948</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1082190</v>
+        <v>1084415</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8683013682036567</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8443385628328368</v>
+        <v>0.8473110656077009</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8868444995806792</v>
+        <v>0.8886678167214261</v>
       </c>
     </row>
     <row r="17">
@@ -4226,19 +4226,19 @@
         <v>65381</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49930</v>
+        <v>51002</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83904</v>
+        <v>83589</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.10708352347916</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08177712839646158</v>
+        <v>0.08353359347046474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1374203186851291</v>
+        <v>0.1369047290431083</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -4247,19 +4247,19 @@
         <v>64052</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48928</v>
+        <v>49344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80871</v>
+        <v>81463</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1050531561456117</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08024776304346717</v>
+        <v>0.08093029179028965</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1326387681610218</v>
+        <v>0.1336097837877878</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>113</v>
@@ -4268,19 +4268,19 @@
         <v>129433</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>109560</v>
+        <v>108101</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>154908</v>
+        <v>151579</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1060690494502337</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0897834326704515</v>
+        <v>0.08858751605863889</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1269455201825196</v>
+        <v>0.1242178190950829</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>20352</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10872</v>
+        <v>12167</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32576</v>
+        <v>34597</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03333363692887552</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01780697039477423</v>
+        <v>0.01992776744268526</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05335378890361484</v>
+        <v>0.05666404724717414</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -4318,19 +4318,19 @@
         <v>10923</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5949</v>
+        <v>5134</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19911</v>
+        <v>20674</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01791474958951624</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009757893585921981</v>
+        <v>0.008420510821861881</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03265582499600512</v>
+        <v>0.03390875050664797</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -4339,19 +4339,19 @@
         <v>31275</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20892</v>
+        <v>19875</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>45407</v>
+        <v>45316</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02562958234610968</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01712081473036669</v>
+        <v>0.01628737499455</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03721096101921466</v>
+        <v>0.03713571876571663</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>382278</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>367240</v>
+        <v>367014</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>394345</v>
+        <v>393132</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8944936614923282</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8593063149209528</v>
+        <v>0.8587776206681177</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9227281893137927</v>
+        <v>0.9198909278633969</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>337</v>
@@ -4464,19 +4464,19 @@
         <v>369565</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>351977</v>
+        <v>349615</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>384381</v>
+        <v>383091</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8465186402587347</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8062327486486358</v>
+        <v>0.8008234552544741</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8804560369495946</v>
+        <v>0.8775023734778209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>686</v>
@@ -4485,19 +4485,19 @@
         <v>751843</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>729590</v>
+        <v>730219</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>771839</v>
+        <v>771487</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8702506658169064</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8444936240978761</v>
+        <v>0.8452210445231997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8933959052789368</v>
+        <v>0.8929893900889574</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>37893</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26515</v>
+        <v>27968</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>51858</v>
+        <v>52406</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08866710073798864</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06204317964600847</v>
+        <v>0.06544128124498173</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1213432286914351</v>
+        <v>0.122625562868271</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>48</v>
@@ -4535,19 +4535,19 @@
         <v>54794</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>42067</v>
+        <v>41583</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>72467</v>
+        <v>72079</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1255098435974368</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09635796578664139</v>
+        <v>0.09524834044145615</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1659907022553331</v>
+        <v>0.1651024680484433</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>83</v>
@@ -4556,19 +4556,19 @@
         <v>92687</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>74690</v>
+        <v>75118</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>114806</v>
+        <v>113950</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1072846736508455</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08645241904093921</v>
+        <v>0.08694824435798791</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1328872461910888</v>
+        <v>0.1318957354027038</v>
       </c>
     </row>
     <row r="22">
@@ -4588,16 +4588,16 @@
         <v>3051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14651</v>
+        <v>14289</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0168392377696831</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007138864315925486</v>
+        <v>0.007138262756268931</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03428308524840739</v>
+        <v>0.03343439111431243</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -4606,19 +4606,19 @@
         <v>12212</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6526</v>
+        <v>6300</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21344</v>
+        <v>22141</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02797151614382848</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01494775804946366</v>
+        <v>0.0144305922199525</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04889048788010726</v>
+        <v>0.05071578335213187</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -4627,19 +4627,19 @@
         <v>19408</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11575</v>
+        <v>12200</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29965</v>
+        <v>31910</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02246466053224816</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01339845224090734</v>
+        <v>0.01412094309154454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03468411018887892</v>
+        <v>0.03693523391891358</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>281424</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>272095</v>
+        <v>269959</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>290057</v>
+        <v>290615</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9172977508852012</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8868900001742005</v>
+        <v>0.879927213226083</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9454364708669079</v>
+        <v>0.9472555365525523</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>292</v>
@@ -4752,19 +4752,19 @@
         <v>302928</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>289173</v>
+        <v>291429</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>313325</v>
+        <v>314714</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.877118823068251</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8372926600791485</v>
+        <v>0.8438254297518719</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9072244539491466</v>
+        <v>0.9112459191968041</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>548</v>
@@ -4773,19 +4773,19 @@
         <v>584352</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>567985</v>
+        <v>565670</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>597565</v>
+        <v>598109</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8960201773425995</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.870924126212694</v>
+        <v>0.8673745803767681</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9162810212630084</v>
+        <v>0.9171141537110402</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>22403</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14478</v>
+        <v>14085</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32159</v>
+        <v>34492</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07302337335892883</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04718951290757895</v>
+        <v>0.04591017229570212</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1048225579908199</v>
+        <v>0.1124276739552829</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -4823,19 +4823,19 @@
         <v>36819</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27038</v>
+        <v>26249</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50092</v>
+        <v>48090</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.106608439607615</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07828837753782089</v>
+        <v>0.0760044974566506</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1450407014834425</v>
+        <v>0.139243392411067</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -4844,19 +4844,19 @@
         <v>59222</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46244</v>
+        <v>46569</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>74485</v>
+        <v>78442</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09080903255559113</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07090880601122108</v>
+        <v>0.07140699938383166</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1142122193379098</v>
+        <v>0.1202797516973327</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>2969</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7934</v>
+        <v>7932</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009678875755869962</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003092025241755947</v>
+        <v>0.003097951749138027</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02586061922592011</v>
+        <v>0.02585375182881895</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -4894,19 +4894,19 @@
         <v>5620</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1947</v>
+        <v>2743</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12041</v>
+        <v>12126</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.016272737324134</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005636105440104421</v>
+        <v>0.007942252986391656</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03486307979670192</v>
+        <v>0.03511096972248607</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -4915,19 +4915,19 @@
         <v>8590</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3931</v>
+        <v>3856</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15347</v>
+        <v>16384</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01317079010180939</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00602813786450467</v>
+        <v>0.005913336902532839</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02353300678161999</v>
+        <v>0.02512225514487539</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>223222</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>212011</v>
+        <v>212403</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>232043</v>
+        <v>232463</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8976184950316158</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.852533690506213</v>
+        <v>0.8541126525958345</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9330890667518684</v>
+        <v>0.9347745075333675</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>316</v>
@@ -5040,19 +5040,19 @@
         <v>350908</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>337668</v>
+        <v>336731</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>362148</v>
+        <v>361555</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9074678488177176</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8732291304489477</v>
+        <v>0.8708057960472507</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.936535706125166</v>
+        <v>0.9350016026832795</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>515</v>
@@ -5061,19 +5061,19 @@
         <v>574130</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>556490</v>
+        <v>556952</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>589888</v>
+        <v>588228</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9036128325692244</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8758486413227103</v>
+        <v>0.8765761492721773</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.928413689009585</v>
+        <v>0.9258008511228492</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>19230</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11257</v>
+        <v>11358</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29671</v>
+        <v>29869</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07732619839491178</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04526739692092301</v>
+        <v>0.04567225466497473</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1193109367653487</v>
+        <v>0.1201075445678296</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -5111,19 +5111,19 @@
         <v>26397</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17766</v>
+        <v>16482</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38534</v>
+        <v>38199</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06826334656763602</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04594474202692985</v>
+        <v>0.04262255389241422</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09965174071833882</v>
+        <v>0.09878586136235966</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -5132,19 +5132,19 @@
         <v>45626</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33408</v>
+        <v>33738</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>61362</v>
+        <v>61390</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07181052761225785</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05257964589449411</v>
+        <v>0.05310035814615242</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09657713252799634</v>
+        <v>0.09662059233770384</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>6231</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2140</v>
+        <v>2123</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13511</v>
+        <v>12450</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0250553065734724</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008603946962524443</v>
+        <v>0.008536085208710848</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05433163375344443</v>
+        <v>0.05006565425843583</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -5182,19 +5182,19 @@
         <v>9384</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4141</v>
+        <v>4307</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18196</v>
+        <v>18630</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02426880461464634</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01070788690861515</v>
+        <v>0.01113889505798047</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0470551245109708</v>
+        <v>0.04817871985628419</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>14</v>
@@ -5203,19 +5203,19 @@
         <v>15615</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>9204</v>
+        <v>9080</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>25731</v>
+        <v>26190</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02457663981851774</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01448636228297344</v>
+        <v>0.01429092256133255</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04049798768297263</v>
+        <v>0.0412206232975761</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>2980987</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2934362</v>
+        <v>2939088</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3014917</v>
+        <v>3022894</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8764629658483468</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8627543476040229</v>
+        <v>0.8641437245979516</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8864388158930517</v>
+        <v>0.8887844103283103</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2846</v>
@@ -5328,19 +5328,19 @@
         <v>3069236</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3028609</v>
+        <v>3026811</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3109289</v>
+        <v>3110232</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8742144934809539</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8626427593822914</v>
+        <v>0.8621306128531843</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8856229893706281</v>
+        <v>0.8858913439642641</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5642</v>
@@ -5349,19 +5349,19 @@
         <v>6050223</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5986153</v>
+        <v>5994113</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6102137</v>
+        <v>6105483</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8753208880544563</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8660515216967625</v>
+        <v>0.8672030798874192</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8828314895371306</v>
+        <v>0.8833155867439699</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>340515</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>307168</v>
+        <v>303099</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>381172</v>
+        <v>376398</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1001173995007021</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09031288924720064</v>
+        <v>0.08911652363406175</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1120713106304537</v>
+        <v>0.1106675828955305</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>340</v>
@@ -5399,19 +5399,19 @@
         <v>367910</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>331314</v>
+        <v>333245</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>407447</v>
+        <v>411008</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1047924263523786</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.09436872453441568</v>
+        <v>0.09491854348102211</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1160537377370229</v>
+        <v>0.1170680319688097</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>658</v>
@@ -5420,19 +5420,19 @@
         <v>708425</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>662706</v>
+        <v>656704</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>764970</v>
+        <v>761950</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.102492009227097</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.09587756285850157</v>
+        <v>0.09500916894772769</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1106726640359554</v>
+        <v>0.1102356675510829</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>79654</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>62532</v>
+        <v>61566</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>102304</v>
+        <v>101124</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02341963465095112</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01838549908470138</v>
+        <v>0.01810162247288775</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03007912465623724</v>
+        <v>0.02973220735286819</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>67</v>
@@ -5470,19 +5470,19 @@
         <v>73704</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>57204</v>
+        <v>55459</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>92599</v>
+        <v>94567</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02099308016666751</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01629345341056441</v>
+        <v>0.0157963331912886</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02637508663475015</v>
+        <v>0.02693565089568909</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>139</v>
@@ -5491,19 +5491,19 @@
         <v>153357</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>127161</v>
+        <v>129724</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>179532</v>
+        <v>181797</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02218710271844665</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01839718123069092</v>
+        <v>0.01876791231076783</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02597393077600156</v>
+        <v>0.02630159807995622</v>
       </c>
     </row>
     <row r="35">
@@ -5838,19 +5838,19 @@
         <v>361763</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>343985</v>
+        <v>345729</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>373549</v>
+        <v>374613</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8711796949405101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8283659127628321</v>
+        <v>0.8325670267745781</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8995612582900314</v>
+        <v>0.9021232367093059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>326</v>
@@ -5859,19 +5859,19 @@
         <v>316848</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>301188</v>
+        <v>299519</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>331686</v>
+        <v>330637</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8084537195861434</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7684984737536377</v>
+        <v>0.7642399675667666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8463135736469916</v>
+        <v>0.8436390075680362</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>667</v>
@@ -5880,19 +5880,19 @@
         <v>678611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>656058</v>
+        <v>657310</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>698465</v>
+        <v>697789</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8407235598001962</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8127832146984877</v>
+        <v>0.8143343237202425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8653207614674774</v>
+        <v>0.8644826748849715</v>
       </c>
     </row>
     <row r="5">
@@ -5909,19 +5909,19 @@
         <v>44361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33155</v>
+        <v>32628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59901</v>
+        <v>59259</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1068266900492939</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07984219071808037</v>
+        <v>0.07857279459276638</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1442505950711052</v>
+        <v>0.1427032453972284</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -5930,19 +5930,19 @@
         <v>53650</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40559</v>
+        <v>42324</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66288</v>
+        <v>68335</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1368896862402343</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1034879897913437</v>
+        <v>0.1079929715758183</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1691380967725003</v>
+        <v>0.1743593525886045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -5951,19 +5951,19 @@
         <v>98010</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80384</v>
+        <v>81012</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>118154</v>
+        <v>117482</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1214235563322234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09958728759333665</v>
+        <v>0.1003652288496028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1463796389091699</v>
+        <v>0.1455475523604187</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>9133</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4296</v>
+        <v>4310</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17765</v>
+        <v>17974</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02199361501019599</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01034601484643693</v>
+        <v>0.01037998839622758</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04278031029092545</v>
+        <v>0.0432843261684247</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -6001,19 +6001,19 @@
         <v>21421</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13406</v>
+        <v>13263</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31584</v>
+        <v>32183</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0546565941736223</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0342071488468977</v>
+        <v>0.03384104374084566</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08058780749084522</v>
+        <v>0.08211616803891898</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -6022,19 +6022,19 @@
         <v>30554</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21008</v>
+        <v>20804</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44771</v>
+        <v>43827</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0378528838675804</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02602715366937843</v>
+        <v>0.02577445225244012</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05546567032813641</v>
+        <v>0.05429670202369014</v>
       </c>
     </row>
     <row r="7">
@@ -6126,19 +6126,19 @@
         <v>483736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>464122</v>
+        <v>465493</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501392</v>
+        <v>502383</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8246789062356368</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7912401345986962</v>
+        <v>0.7935784683839994</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8547792137602711</v>
+        <v>0.8564691244124994</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>474</v>
@@ -6147,19 +6147,19 @@
         <v>459814</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>442706</v>
+        <v>440519</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>477604</v>
+        <v>476529</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8181758660437483</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7877351245930235</v>
+        <v>0.7838422309774487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8498298636655545</v>
+        <v>0.847918259371678</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>940</v>
@@ -6168,19 +6168,19 @@
         <v>943551</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>914855</v>
+        <v>914911</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>967935</v>
+        <v>968400</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8214969588241101</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7965134982880211</v>
+        <v>0.7965621135462942</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8427268158989942</v>
+        <v>0.8431319231423006</v>
       </c>
     </row>
     <row r="9">
@@ -6197,19 +6197,19 @@
         <v>78840</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>62855</v>
+        <v>61898</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>96068</v>
+        <v>96349</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1344081096737593</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1071567836717425</v>
+        <v>0.105523780605699</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1637775144705767</v>
+        <v>0.1642563808871859</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>77</v>
@@ -6218,19 +6218,19 @@
         <v>75843</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>60130</v>
+        <v>61365</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>91326</v>
+        <v>93684</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1349516074742201</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1069930062179837</v>
+        <v>0.1091899444025501</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1625021063399867</v>
+        <v>0.1666971739071271</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>152</v>
@@ -6239,19 +6239,19 @@
         <v>154683</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>132795</v>
+        <v>132959</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>179128</v>
+        <v>178713</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1346740439703831</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1156172078415684</v>
+        <v>0.1157599841476352</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1559570831172797</v>
+        <v>0.1555950805917089</v>
       </c>
     </row>
     <row r="10">
@@ -6268,19 +6268,19 @@
         <v>23999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15112</v>
+        <v>15149</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36247</v>
+        <v>35400</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.040912984090604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02576325756842026</v>
+        <v>0.02582639805276482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06179364782611845</v>
+        <v>0.06034974224880305</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -6289,19 +6289,19 @@
         <v>26342</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18199</v>
+        <v>17611</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37081</v>
+        <v>37003</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04687252648203172</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03238298134883354</v>
+        <v>0.0313370284620805</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06597967655753521</v>
+        <v>0.06584122084187352</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -6310,19 +6310,19 @@
         <v>50341</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37667</v>
+        <v>37231</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65462</v>
+        <v>64987</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0438289972055067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03279460207225909</v>
+        <v>0.03241491270762241</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05699453131480819</v>
+        <v>0.05658050897373999</v>
       </c>
     </row>
     <row r="11">
@@ -6414,19 +6414,19 @@
         <v>569378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>549886</v>
+        <v>548066</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>585845</v>
+        <v>585901</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8563138066946652</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8269980296033261</v>
+        <v>0.8242617659212657</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8810784275832131</v>
+        <v>0.881162749105843</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>560</v>
@@ -6435,19 +6435,19 @@
         <v>553558</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>534080</v>
+        <v>533646</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>570848</v>
+        <v>571498</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8421892530717549</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8125544832764442</v>
+        <v>0.8118948273932624</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8684933586133183</v>
+        <v>0.8694825626827913</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1103</v>
@@ -6456,19 +6456,19 @@
         <v>1122936</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1095879</v>
+        <v>1096318</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1146979</v>
+        <v>1147980</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8492923002235484</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8288287148046224</v>
+        <v>0.8291604851472366</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8674762161835964</v>
+        <v>0.8682334816106552</v>
       </c>
     </row>
     <row r="13">
@@ -6485,19 +6485,19 @@
         <v>80540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65727</v>
+        <v>66356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99429</v>
+        <v>99504</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1211276802430376</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09884959522943691</v>
+        <v>0.09979551958741106</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1495354524826348</v>
+        <v>0.1496482542917246</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -6506,19 +6506,19 @@
         <v>84385</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68692</v>
+        <v>68677</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102372</v>
+        <v>105446</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1283845685293694</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.104508802990089</v>
+        <v>0.1044852806608999</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1557494308359947</v>
+        <v>0.1604259073692225</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>159</v>
@@ -6527,19 +6527,19 @@
         <v>164925</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>143330</v>
+        <v>141356</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189089</v>
+        <v>189554</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1247351774725431</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1084028698777696</v>
+        <v>0.1069092735510595</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1430107535452192</v>
+        <v>0.1433624442581194</v>
       </c>
     </row>
     <row r="14">
@@ -6556,19 +6556,19 @@
         <v>15000</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8585</v>
+        <v>7520</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23353</v>
+        <v>24046</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02255851306229719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01291135454918193</v>
+        <v>0.01130962276773094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03512200470614755</v>
+        <v>0.0361634827141243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -6577,19 +6577,19 @@
         <v>19341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12306</v>
+        <v>12083</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30153</v>
+        <v>30264</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02942617839887579</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01872232903753857</v>
+        <v>0.01838281183347075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04587546303882703</v>
+        <v>0.0460444938148727</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -6598,19 +6598,19 @@
         <v>34341</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23709</v>
+        <v>24098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46217</v>
+        <v>46706</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02597252230390855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01793173443543026</v>
+        <v>0.01822575637425524</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03495482214120552</v>
+        <v>0.03532407958716844</v>
       </c>
     </row>
     <row r="15">
@@ -6702,19 +6702,19 @@
         <v>538235</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>516364</v>
+        <v>519385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>555229</v>
+        <v>556623</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8444833381339366</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8101689458698108</v>
+        <v>0.8149078686605908</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8711476964176048</v>
+        <v>0.8733334215935021</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>509</v>
@@ -6723,19 +6723,19 @@
         <v>547326</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>529971</v>
+        <v>528718</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>567061</v>
+        <v>565304</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8532403170338976</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8261842424886878</v>
+        <v>0.8242306975347672</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8840055507394767</v>
+        <v>0.8812663312290248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>992</v>
@@ -6744,19 +6744,19 @@
         <v>1085562</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1058132</v>
+        <v>1058636</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1110982</v>
+        <v>1109089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8488759133297546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8274263753937225</v>
+        <v>0.8278202066096874</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8687538521979338</v>
+        <v>0.8672731892454325</v>
       </c>
     </row>
     <row r="17">
@@ -6773,19 +6773,19 @@
         <v>79811</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64634</v>
+        <v>63933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>99429</v>
+        <v>100026</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1252222377139542</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.101410278916409</v>
+        <v>0.1003106811657647</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1560035338569533</v>
+        <v>0.1569401507867831</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -6794,19 +6794,19 @@
         <v>67615</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52304</v>
+        <v>52891</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84320</v>
+        <v>84181</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1054063507048435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08153759744117486</v>
+        <v>0.08245242097089851</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1314484957692239</v>
+        <v>0.1312317980748759</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>138</v>
@@ -6815,19 +6815,19 @@
         <v>147426</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>125785</v>
+        <v>125533</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171747</v>
+        <v>172465</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1152824200264021</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09835962744523268</v>
+        <v>0.09816308037635016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1343004518969713</v>
+        <v>0.1348624927357748</v>
       </c>
     </row>
     <row r="18">
@@ -6844,19 +6844,19 @@
         <v>19308</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11190</v>
+        <v>11392</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30336</v>
+        <v>30944</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03029442415210914</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01755667979994509</v>
+        <v>0.01787443891533401</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0475965133154346</v>
+        <v>0.04855064670767061</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -6865,19 +6865,19 @@
         <v>26527</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16834</v>
+        <v>17279</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37527</v>
+        <v>39104</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04135333226125887</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0262431450549528</v>
+        <v>0.0269372457801782</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05850134728006832</v>
+        <v>0.06096059305183159</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>40</v>
@@ -6886,19 +6886,19 @@
         <v>45835</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33254</v>
+        <v>33537</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>61165</v>
+        <v>63408</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0358416666438432</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0260037064674925</v>
+        <v>0.02622510861914484</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04782927234360651</v>
+        <v>0.04958285481884765</v>
       </c>
     </row>
     <row r="19">
@@ -6990,19 +6990,19 @@
         <v>396034</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>376653</v>
+        <v>378626</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>411080</v>
+        <v>413186</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8325195330789033</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7917791843293396</v>
+        <v>0.7959269497452822</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8641482090010006</v>
+        <v>0.8685751106358993</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>361</v>
@@ -7011,19 +7011,19 @@
         <v>412558</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>394565</v>
+        <v>392000</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>429007</v>
+        <v>428773</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8379866185673689</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.801438821630541</v>
+        <v>0.7962279606479499</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8713970485712055</v>
+        <v>0.8709225536582136</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>714</v>
@@ -7032,19 +7032,19 @@
         <v>808593</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>783866</v>
+        <v>783966</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>831461</v>
+        <v>830941</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8352999967490983</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8097568537790913</v>
+        <v>0.8098595659885126</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8589231238177121</v>
+        <v>0.8583858719330808</v>
       </c>
     </row>
     <row r="21">
@@ -7061,19 +7061,19 @@
         <v>57401</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>44189</v>
+        <v>43389</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>74525</v>
+        <v>73762</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.120665565072214</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09289097478929459</v>
+        <v>0.0912104004446074</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1566630967409991</v>
+        <v>0.1550575770438452</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>49</v>
@@ -7082,19 +7082,19 @@
         <v>57947</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44433</v>
+        <v>43310</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>74623</v>
+        <v>75730</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1177011197797822</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09025252265623546</v>
+        <v>0.0879702315341967</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1515734449294604</v>
+        <v>0.1538228097958337</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>99</v>
@@ -7103,19 +7103,19 @@
         <v>115348</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>96111</v>
+        <v>94383</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>138716</v>
+        <v>138665</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1191579002560561</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09928562809032923</v>
+        <v>0.09750087775317846</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1432974041130867</v>
+        <v>0.1432454522487635</v>
       </c>
     </row>
     <row r="22">
@@ -7132,19 +7132,19 @@
         <v>22270</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14352</v>
+        <v>14339</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33247</v>
+        <v>34592</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04681490184888275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03017006148783651</v>
+        <v>0.0301429944467178</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06988905919140982</v>
+        <v>0.07271690729864989</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -7153,19 +7153,19 @@
         <v>21816</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13468</v>
+        <v>13791</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32773</v>
+        <v>33489</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04431226165284894</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02735645168715666</v>
+        <v>0.02801160169710775</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06656769871948859</v>
+        <v>0.06802354383519431</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -7174,19 +7174,19 @@
         <v>44086</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31688</v>
+        <v>32227</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59218</v>
+        <v>58968</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04554210299484569</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03273512777682037</v>
+        <v>0.03329144362692505</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0611737945847956</v>
+        <v>0.06091559341687853</v>
       </c>
     </row>
     <row r="23">
@@ -7278,19 +7278,19 @@
         <v>282960</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>267970</v>
+        <v>267132</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>295057</v>
+        <v>294297</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8510516669041702</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8059647106136888</v>
+        <v>0.8034470775174831</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8874360908473045</v>
+        <v>0.8851487253167947</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>295</v>
@@ -7299,19 +7299,19 @@
         <v>314242</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>298587</v>
+        <v>298823</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>327347</v>
+        <v>329072</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8407645116375677</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7988798263201482</v>
+        <v>0.7995125259692282</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8758282091253963</v>
+        <v>0.8804434023684818</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>573</v>
@@ -7320,19 +7320,19 @@
         <v>597202</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>577729</v>
+        <v>578445</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>617148</v>
+        <v>618156</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8456074842578309</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8180355532749036</v>
+        <v>0.8190489730441105</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8738496191012141</v>
+        <v>0.8752779282232412</v>
       </c>
     </row>
     <row r="25">
@@ -7349,19 +7349,19 @@
         <v>35749</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25281</v>
+        <v>26197</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49495</v>
+        <v>49005</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1075219294141691</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0760363596628434</v>
+        <v>0.078791010345806</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1488639941575908</v>
+        <v>0.1473909384500082</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -7370,19 +7370,19 @@
         <v>46338</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34347</v>
+        <v>34978</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60153</v>
+        <v>61230</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.123979290361883</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0918978451359931</v>
+        <v>0.09358374909789677</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1609419603698424</v>
+        <v>0.1638221984385531</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -7391,19 +7391,19 @@
         <v>82087</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64905</v>
+        <v>64112</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>101381</v>
+        <v>98009</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1162315169098459</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0919018255154934</v>
+        <v>0.09077962060050745</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1435509412299373</v>
+        <v>0.1387759741148868</v>
       </c>
     </row>
     <row r="26">
@@ -7420,19 +7420,19 @@
         <v>13774</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7762</v>
+        <v>7500</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22397</v>
+        <v>22970</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04142640368166062</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02334530703174052</v>
+        <v>0.02255706245734561</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06736278991204672</v>
+        <v>0.06908636267778276</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -7441,19 +7441,19 @@
         <v>13177</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7378</v>
+        <v>6318</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21721</v>
+        <v>21792</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03525619800054922</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01974053044841074</v>
+        <v>0.01690405880742287</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05811516065573522</v>
+        <v>0.05830615070885101</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -7462,19 +7462,19 @@
         <v>26951</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18559</v>
+        <v>17141</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40646</v>
+        <v>38751</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03816099883232316</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02627825230606585</v>
+        <v>0.02427015963843764</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05755200041447579</v>
+        <v>0.05486923929259224</v>
       </c>
     </row>
     <row r="27">
@@ -7566,19 +7566,19 @@
         <v>220482</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>209695</v>
+        <v>210762</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>229327</v>
+        <v>229969</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8662811215913335</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8239005381893493</v>
+        <v>0.8280944470625181</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9010369552116275</v>
+        <v>0.9035568762813215</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>256</v>
@@ -7587,19 +7587,19 @@
         <v>339639</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>322085</v>
+        <v>322368</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>353521</v>
+        <v>354781</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8597018260699802</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8152689005859921</v>
+        <v>0.8159846711053809</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8948408740710931</v>
+        <v>0.8980307319097344</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>514</v>
@@ -7608,19 +7608,19 @@
         <v>560121</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>539725</v>
+        <v>539253</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>578406</v>
+        <v>576980</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8622796889157758</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.830881335217064</v>
+        <v>0.8301556709119018</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8904299178998482</v>
+        <v>0.8882343948810587</v>
       </c>
     </row>
     <row r="29">
@@ -7637,19 +7637,19 @@
         <v>27998</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19943</v>
+        <v>19913</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37431</v>
+        <v>36760</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1100065828162359</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07835874249814219</v>
+        <v>0.0782382045177399</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1470678401868018</v>
+        <v>0.1444333860214041</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>35</v>
@@ -7658,19 +7658,19 @@
         <v>47555</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33981</v>
+        <v>33795</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>64108</v>
+        <v>64791</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1203713795308234</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08601248335773452</v>
+        <v>0.08554247146846473</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.162272041103515</v>
+        <v>0.1640001450911416</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>69</v>
@@ -7679,19 +7679,19 @@
         <v>75553</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>58977</v>
+        <v>61017</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>93958</v>
+        <v>96542</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1163103027380206</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0907922716659947</v>
+        <v>0.09393267004846413</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1446439813348669</v>
+        <v>0.1486216868441576</v>
       </c>
     </row>
     <row r="30">
@@ -7708,19 +7708,19 @@
         <v>6035</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2587</v>
+        <v>2576</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12062</v>
+        <v>12091</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02371229559243064</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01016396015205587</v>
+        <v>0.01012025203488286</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04739111703151441</v>
+        <v>0.04750696276718972</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -7729,19 +7729,19 @@
         <v>7872</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2726</v>
+        <v>2701</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16088</v>
+        <v>15412</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01992679439919637</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.006899013863687221</v>
+        <v>0.006835586084920887</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04072268499585399</v>
+        <v>0.03901159846018188</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>13</v>
@@ -7750,19 +7750,19 @@
         <v>13908</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8044</v>
+        <v>7133</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>23191</v>
+        <v>23856</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0214100083462036</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01238379473077633</v>
+        <v>0.01098137914743209</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03570118763728496</v>
+        <v>0.03672540406407783</v>
       </c>
     </row>
     <row r="31">
@@ -7854,19 +7854,19 @@
         <v>2852589</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2810117</v>
+        <v>2806883</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2893759</v>
+        <v>2895116</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8472681204208041</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8346532115517956</v>
+        <v>0.8336925588703532</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8594963494828098</v>
+        <v>0.8598992320513119</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2781</v>
@@ -7875,19 +7875,19 @@
         <v>2943986</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2900382</v>
+        <v>2899080</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2988955</v>
+        <v>2985486</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8378318538716859</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8254223785492973</v>
+        <v>0.8250520041916015</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8506297136505742</v>
+        <v>0.8496422417897304</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5503</v>
@@ -7896,19 +7896,19 @@
         <v>5796576</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5737413</v>
+        <v>5736494</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5858557</v>
+        <v>5864391</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8424491824694531</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8338507133529698</v>
+        <v>0.8337171235947731</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8514572344082809</v>
+        <v>0.8523050503603209</v>
       </c>
     </row>
     <row r="33">
@@ -7925,19 +7925,19 @@
         <v>404701</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>367490</v>
+        <v>365924</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>442384</v>
+        <v>447087</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1202030864526523</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1091508538959868</v>
+        <v>0.1086857390165421</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1313955486756643</v>
+        <v>0.1327925068678562</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>403</v>
@@ -7946,19 +7946,19 @@
         <v>433332</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>390553</v>
+        <v>394552</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>472676</v>
+        <v>473902</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1233223348256931</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1111478634521151</v>
+        <v>0.1122859382648018</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1345193953569256</v>
+        <v>0.1348683105290078</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>786</v>
@@ -7967,19 +7967,19 @@
         <v>838033</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>784850</v>
+        <v>779987</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>894357</v>
+        <v>892228</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1217960325914979</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1140666967578349</v>
+        <v>0.1133599713345743</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1299820106006906</v>
+        <v>0.1296725138332763</v>
       </c>
     </row>
     <row r="34">
@@ -7996,19 +7996,19 @@
         <v>109518</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>90400</v>
+        <v>89743</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>133270</v>
+        <v>134849</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03252879312654365</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02685037293110675</v>
+        <v>0.02665511280698014</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03958356536776625</v>
+        <v>0.04005251622729084</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>127</v>
@@ -8017,19 +8017,19 @@
         <v>136497</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>116700</v>
+        <v>118180</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>162885</v>
+        <v>161419</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03884581130262092</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03321166134573175</v>
+        <v>0.03363297069464887</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04635558431173564</v>
+        <v>0.04593829070175106</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>226</v>
@@ -8038,19 +8038,19 @@
         <v>246015</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>215526</v>
+        <v>217076</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>278140</v>
+        <v>281161</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03575478493904891</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03132356712700736</v>
+        <v>0.03154887406000335</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04042360153349987</v>
+        <v>0.04086277101947399</v>
       </c>
     </row>
     <row r="35">
@@ -8385,19 +8385,19 @@
         <v>379634</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>360228</v>
+        <v>361105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>392324</v>
+        <v>392029</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9388101482928781</v>
+        <v>0.9388101482928782</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8908207618582545</v>
+        <v>0.8929889602679875</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9701904672838962</v>
+        <v>0.9694606743549991</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>183</v>
@@ -8406,19 +8406,19 @@
         <v>316652</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>297052</v>
+        <v>298219</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>330125</v>
+        <v>331950</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8833986498538945</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.828719969881877</v>
+        <v>0.8319749998135531</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.920987795177922</v>
+        <v>0.9260771216567356</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>344</v>
@@ -8427,19 +8427,19 @@
         <v>696286</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>669827</v>
+        <v>667527</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>717860</v>
+        <v>714808</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9127726180271635</v>
+        <v>0.9127726180271634</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8780871527215904</v>
+        <v>0.8750722596413515</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9410543446833195</v>
+        <v>0.9370543051519359</v>
       </c>
     </row>
     <row r="5">
@@ -8456,19 +8456,19 @@
         <v>16186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5464</v>
+        <v>6798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30092</v>
+        <v>31818</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04002754583206286</v>
+        <v>0.04002754583206287</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01351096227777262</v>
+        <v>0.01681121433858831</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07441579387198247</v>
+        <v>0.07868356763251075</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -8477,19 +8477,19 @@
         <v>33656</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20453</v>
+        <v>19928</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52176</v>
+        <v>50660</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09389490413190747</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05706120508585179</v>
+        <v>0.05559587187379183</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1455622019211837</v>
+        <v>0.1413310514001702</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -8498,19 +8498,19 @@
         <v>49843</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32414</v>
+        <v>34145</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73189</v>
+        <v>74429</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06533949392187582</v>
+        <v>0.0653394939218758</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04249225940153559</v>
+        <v>0.04476111429866954</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09594469658076156</v>
+        <v>0.09757013747713808</v>
       </c>
     </row>
     <row r="6">
@@ -8527,19 +8527,19 @@
         <v>8558</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23526</v>
+        <v>23154</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02116230587505896</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004292785622350064</v>
+        <v>0.00430385697446497</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05817875746719313</v>
+        <v>0.05725765335571181</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -8548,19 +8548,19 @@
         <v>8139</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2874</v>
+        <v>2664</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19577</v>
+        <v>17756</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02270644601419799</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008018717310853352</v>
+        <v>0.007432387331092116</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05461691769609722</v>
+        <v>0.04953656792799643</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -8569,19 +8569,19 @@
         <v>16697</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7675</v>
+        <v>7619</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33418</v>
+        <v>36064</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.02188788805096077</v>
+        <v>0.02188788805096076</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01006089616078862</v>
+        <v>0.0099872323572767</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04380858613564789</v>
+        <v>0.0472766095782232</v>
       </c>
     </row>
     <row r="7">
@@ -8673,19 +8673,19 @@
         <v>425392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402968</v>
+        <v>404180</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440807</v>
+        <v>439678</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8920121230247197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8449908440377291</v>
+        <v>0.8475322110253499</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9243358170288503</v>
+        <v>0.9219686166649756</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>423</v>
@@ -8694,19 +8694,19 @@
         <v>458961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>443722</v>
+        <v>445257</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>471199</v>
+        <v>471416</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9165336810710758</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8861018024990598</v>
+        <v>0.8891670316377954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9409725067034669</v>
+        <v>0.9414061287404791</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>694</v>
@@ -8715,19 +8715,19 @@
         <v>884352</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>857795</v>
+        <v>859508</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>903408</v>
+        <v>904654</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9045722220549322</v>
+        <v>0.9045722220549323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8774074791393724</v>
+        <v>0.8791598722333136</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9240634623935549</v>
+        <v>0.925338072855569</v>
       </c>
     </row>
     <row r="9">
@@ -8744,19 +8744,19 @@
         <v>41705</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>27903</v>
+        <v>28539</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>62340</v>
+        <v>61375</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08745226842860872</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05851073412481825</v>
+        <v>0.05984470242169682</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1307214058472034</v>
+        <v>0.1286987596124153</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -8765,19 +8765,19 @@
         <v>34955</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24456</v>
+        <v>24089</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49260</v>
+        <v>48934</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06980449642983032</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04883841755466564</v>
+        <v>0.04810531394550975</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09837083888905374</v>
+        <v>0.09772027572162297</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>57</v>
@@ -8786,19 +8786,19 @@
         <v>76660</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>60366</v>
+        <v>58261</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>101878</v>
+        <v>98866</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07841296662126669</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06174581363387296</v>
+        <v>0.05959313836570361</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1042071162856698</v>
+        <v>0.1011264305530287</v>
       </c>
     </row>
     <row r="10">
@@ -8815,19 +8815,19 @@
         <v>9793</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3943</v>
+        <v>3882</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21639</v>
+        <v>20663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0205356085466716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008267782053785614</v>
+        <v>0.00814001711097103</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04537527721087264</v>
+        <v>0.04332881950693667</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -8836,19 +8836,19 @@
         <v>6841</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2110</v>
+        <v>2320</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16261</v>
+        <v>15267</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01366182249909386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004213320949129934</v>
+        <v>0.004632546812914496</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03247266977481274</v>
+        <v>0.03048710888561082</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -8857,19 +8857,19 @@
         <v>16634</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7951</v>
+        <v>8465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28717</v>
+        <v>27675</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.01701481132380104</v>
+        <v>0.01701481132380105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008132473872321929</v>
+        <v>0.008658739791040863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02937369130307649</v>
+        <v>0.02830825839579036</v>
       </c>
     </row>
     <row r="11">
@@ -8961,19 +8961,19 @@
         <v>556063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>539129</v>
+        <v>539475</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>569785</v>
+        <v>571824</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.902228899354469</v>
+        <v>0.9022288993544688</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8747538475083076</v>
+        <v>0.8753150050705902</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9244946880354713</v>
+        <v>0.9278028807045507</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>766</v>
@@ -8982,19 +8982,19 @@
         <v>560593</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>547136</v>
+        <v>546361</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>572944</v>
+        <v>573057</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9039001340656828</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8822021554736142</v>
+        <v>0.8809512493583614</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9238134143219288</v>
+        <v>0.9239957285528531</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1258</v>
@@ -9003,19 +9003,19 @@
         <v>1116657</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1097056</v>
+        <v>1095802</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1135837</v>
+        <v>1135625</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9030671340826871</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8872157183595181</v>
+        <v>0.8862009889731085</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9185787491314664</v>
+        <v>0.9184073273794344</v>
       </c>
     </row>
     <row r="13">
@@ -9032,19 +9032,19 @@
         <v>47289</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33931</v>
+        <v>34040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61162</v>
+        <v>61580</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07672849181575438</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0550542906213633</v>
+        <v>0.05523062442815573</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09923720430954956</v>
+        <v>0.09991548445293576</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -9053,19 +9053,19 @@
         <v>43819</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33255</v>
+        <v>33077</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56131</v>
+        <v>56010</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07065343000304433</v>
+        <v>0.07065343000304432</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0536197202951065</v>
+        <v>0.05333402219985434</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09050512670512668</v>
+        <v>0.09031090423672701</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -9074,19 +9074,19 @@
         <v>91108</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74867</v>
+        <v>75202</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110169</v>
+        <v>111185</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07368144656632558</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06054666991039815</v>
+        <v>0.06081795326107167</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0890965328021871</v>
+        <v>0.08991781039240099</v>
       </c>
     </row>
     <row r="14">
@@ -9103,19 +9103,19 @@
         <v>12969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6749</v>
+        <v>6513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22836</v>
+        <v>23479</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02104260882977656</v>
+        <v>0.02104260882977657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0109497868824333</v>
+        <v>0.01056677805511775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03705293146817283</v>
+        <v>0.03809518834908626</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -9124,19 +9124,19 @@
         <v>15782</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9835</v>
+        <v>9744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23616</v>
+        <v>23580</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0254464359312728</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01585763239320997</v>
+        <v>0.01571170037951125</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03807876078045023</v>
+        <v>0.03801995909238884</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -9145,19 +9145,19 @@
         <v>28751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19638</v>
+        <v>19844</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40155</v>
+        <v>42359</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02325141935098737</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01588132451059087</v>
+        <v>0.01604811027678964</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03247437025259843</v>
+        <v>0.03425685423598345</v>
       </c>
     </row>
     <row r="15">
@@ -9249,19 +9249,19 @@
         <v>631767</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>615987</v>
+        <v>614799</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>647246</v>
+        <v>648323</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9062118175185704</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8835767521695658</v>
+        <v>0.8818724828934792</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9284142464508203</v>
+        <v>0.9299594252040099</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1020</v>
@@ -9270,19 +9270,19 @@
         <v>656713</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>641385</v>
+        <v>643050</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>668653</v>
+        <v>668456</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8970447515322936</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8761073694300723</v>
+        <v>0.8783814382988498</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9133549559983706</v>
+        <v>0.9130849688789505</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1622</v>
@@ -9291,19 +9291,19 @@
         <v>1288480</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1265603</v>
+        <v>1265507</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1308725</v>
+        <v>1308396</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9015162578335232</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8855097596951751</v>
+        <v>0.8854425395481244</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9156806466708396</v>
+        <v>0.9154505175860702</v>
       </c>
     </row>
     <row r="17">
@@ -9320,19 +9320,19 @@
         <v>47598</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34968</v>
+        <v>34157</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63456</v>
+        <v>61173</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06827487326317314</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05015886277654842</v>
+        <v>0.04899433778768758</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09102199438100861</v>
+        <v>0.08774724821773741</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>89</v>
@@ -9341,19 +9341,19 @@
         <v>59160</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49086</v>
+        <v>48213</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>72120</v>
+        <v>71600</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0808100181077922</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06704984034353427</v>
+        <v>0.06585730467922003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09851305048107212</v>
+        <v>0.09780346637583497</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>133</v>
@@ -9362,19 +9362,19 @@
         <v>106758</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>90392</v>
+        <v>89043</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>127868</v>
+        <v>126612</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07469563219157313</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06324491119935208</v>
+        <v>0.06230083478159969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08946570839604638</v>
+        <v>0.0885873116279121</v>
       </c>
     </row>
     <row r="18">
@@ -9391,19 +9391,19 @@
         <v>17787</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10322</v>
+        <v>10105</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27933</v>
+        <v>27453</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02551330921825653</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01480554491995538</v>
+        <v>0.01449407115243109</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04006692573260184</v>
+        <v>0.03937837960098077</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -9412,19 +9412,19 @@
         <v>16212</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10994</v>
+        <v>10847</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24044</v>
+        <v>23424</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02214523035991433</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0150169988994413</v>
+        <v>0.01481677264557925</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03284301229264804</v>
+        <v>0.03199625796418445</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>40</v>
@@ -9433,19 +9433,19 @@
         <v>33999</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23886</v>
+        <v>24979</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>45988</v>
+        <v>46111</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02378810997490361</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01671240552636102</v>
+        <v>0.01747749491024591</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03217673275151797</v>
+        <v>0.03226280425596115</v>
       </c>
     </row>
     <row r="19">
@@ -9537,19 +9537,19 @@
         <v>548550</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>533263</v>
+        <v>535300</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>560998</v>
+        <v>561202</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9085777219263554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8832573378228592</v>
+        <v>0.8866311287178781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9291951383629783</v>
+        <v>0.9295330983098171</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>890</v>
@@ -9558,19 +9558,19 @@
         <v>539717</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>527527</v>
+        <v>526145</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>551413</v>
+        <v>550614</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8915652441477824</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8714287567640476</v>
+        <v>0.8691451259601257</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.910886543286605</v>
+        <v>0.9095660452553582</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1487</v>
@@ -9579,19 +9579,19 @@
         <v>1088267</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1069046</v>
+        <v>1070478</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1105807</v>
+        <v>1105097</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9000601347691136</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8841633313100322</v>
+        <v>0.8853477824080623</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9145667310928479</v>
+        <v>0.9139796828025794</v>
       </c>
     </row>
     <row r="21">
@@ -9608,19 +9608,19 @@
         <v>45360</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34700</v>
+        <v>34505</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>60129</v>
+        <v>58654</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07513072849774628</v>
+        <v>0.0751307284977463</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05747469271854045</v>
+        <v>0.05715195303126205</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09959364440481662</v>
+        <v>0.09714986802028348</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>82</v>
@@ -9629,19 +9629,19 @@
         <v>48887</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>38956</v>
+        <v>39675</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>59378</v>
+        <v>60347</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.08075717951318398</v>
+        <v>0.08075717951318397</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06435226979593391</v>
+        <v>0.06553981159896005</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09808793307128434</v>
+        <v>0.09968762484753892</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>133</v>
@@ -9650,19 +9650,19 @@
         <v>94247</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>80057</v>
+        <v>79458</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>111066</v>
+        <v>110136</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07794770716091909</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06621187139319612</v>
+        <v>0.06571656701804525</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0918576703637647</v>
+        <v>0.09108858372409334</v>
       </c>
     </row>
     <row r="22">
@@ -9679,19 +9679,19 @@
         <v>9836</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4845</v>
+        <v>5075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17681</v>
+        <v>17260</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01629154957589815</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008024772165885119</v>
+        <v>0.008406466002122434</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02928519169393219</v>
+        <v>0.02858752338673811</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -9700,19 +9700,19 @@
         <v>16755</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11136</v>
+        <v>11318</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23751</v>
+        <v>24686</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02767757633903369</v>
+        <v>0.02767757633903368</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01839562848533895</v>
+        <v>0.01869569459406915</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03923427351484273</v>
+        <v>0.04077983396273248</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -9721,19 +9721,19 @@
         <v>26591</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18560</v>
+        <v>19262</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36422</v>
+        <v>36541</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02199215806996717</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01535020158372745</v>
+        <v>0.01593038968109486</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03012281932939278</v>
+        <v>0.0302217729560567</v>
       </c>
     </row>
     <row r="23">
@@ -9825,19 +9825,19 @@
         <v>370310</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>359846</v>
+        <v>359998</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>378520</v>
+        <v>378525</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.910989282059906</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.885247166860152</v>
+        <v>0.8856206717524059</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9311860343014889</v>
+        <v>0.9311998385451813</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>735</v>
@@ -9846,19 +9846,19 @@
         <v>388666</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>379099</v>
+        <v>379318</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>397993</v>
+        <v>397287</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.895998523963618</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8739422081629521</v>
+        <v>0.8744479741726743</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9174990990487126</v>
+        <v>0.9158731130961787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1252</v>
@@ -9867,19 +9867,19 @@
         <v>758975</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>744871</v>
+        <v>743911</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>769996</v>
+        <v>770811</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9032504868986476</v>
+        <v>0.9032504868986477</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8864646680233315</v>
+        <v>0.8853221233371523</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9163662433198843</v>
+        <v>0.9173364400237459</v>
       </c>
     </row>
     <row r="25">
@@ -9896,19 +9896,19 @@
         <v>29642</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22022</v>
+        <v>22082</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39045</v>
+        <v>39032</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07292082776530473</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05417648235422538</v>
+        <v>0.05432440564761506</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09605403477512645</v>
+        <v>0.09602232489595536</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -9917,19 +9917,19 @@
         <v>35426</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27959</v>
+        <v>27913</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44380</v>
+        <v>43954</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08166830209883308</v>
+        <v>0.08166830209883306</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06445412213839562</v>
+        <v>0.06434843207980234</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1023095493765461</v>
+        <v>0.1013278856033448</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -9938,19 +9938,19 @@
         <v>65068</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54292</v>
+        <v>54711</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78730</v>
+        <v>78158</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07743660419306951</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06461230445934626</v>
+        <v>0.06511151905700821</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09369572854926934</v>
+        <v>0.093014869958062</v>
       </c>
     </row>
     <row r="26">
@@ -9967,19 +9967,19 @@
         <v>6540</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3067</v>
+        <v>3289</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11637</v>
+        <v>11705</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01608989017478916</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007544836808304764</v>
+        <v>0.008091286197417153</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02862782331852522</v>
+        <v>0.02879616311927342</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -9988,19 +9988,19 @@
         <v>9688</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6045</v>
+        <v>5563</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14960</v>
+        <v>14793</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02233317393754896</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01393676539909665</v>
+        <v>0.01282379131016066</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03448742014770158</v>
+        <v>0.03410156627539092</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -10009,19 +10009,19 @@
         <v>16228</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10759</v>
+        <v>10832</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>22795</v>
+        <v>23496</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01931290890828287</v>
+        <v>0.01931290890828288</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01280430361574885</v>
+        <v>0.01289084938693779</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02712872681627598</v>
+        <v>0.02796210027941039</v>
       </c>
     </row>
     <row r="27">
@@ -10113,19 +10113,19 @@
         <v>283462</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>274346</v>
+        <v>273878</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>290428</v>
+        <v>290774</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9158602346768238</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8864050176546789</v>
+        <v>0.8848939738777728</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9383664668454137</v>
+        <v>0.9394849809598128</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>797</v>
@@ -10134,19 +10134,19 @@
         <v>416504</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>406199</v>
+        <v>405020</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>424664</v>
+        <v>425099</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9104221351015546</v>
+        <v>0.9104221351015545</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8878985361826852</v>
+        <v>0.8853205330666052</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9282600744087275</v>
+        <v>0.9292100848084015</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1219</v>
@@ -10155,19 +10155,19 @@
         <v>699965</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>685066</v>
+        <v>685376</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>711025</v>
+        <v>711254</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9126165812454179</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8931916526251417</v>
+        <v>0.8935953016881174</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9270361479930043</v>
+        <v>0.9273348059857207</v>
       </c>
     </row>
     <row r="29">
@@ -10184,19 +10184,19 @@
         <v>22883</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15817</v>
+        <v>15925</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31092</v>
+        <v>31874</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.07393535136636022</v>
+        <v>0.07393535136636019</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05110390371747908</v>
+        <v>0.05145304965952505</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1004574339274852</v>
+        <v>0.1029831829846759</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>58</v>
@@ -10205,19 +10205,19 @@
         <v>33156</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25699</v>
+        <v>24859</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42741</v>
+        <v>42342</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07247369373368584</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0561736807777387</v>
+        <v>0.054338830565293</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09342554940475518</v>
+        <v>0.09255486794222645</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>89</v>
@@ -10226,19 +10226,19 @@
         <v>56039</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>45413</v>
+        <v>45759</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>69069</v>
+        <v>69582</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07306351907823402</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05920996224859186</v>
+        <v>0.05966063327456447</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09005225060388745</v>
+        <v>0.09072104414728624</v>
       </c>
     </row>
     <row r="30">
@@ -10255,19 +10255,19 @@
         <v>3158</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7481</v>
+        <v>8317</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.0102044139568158</v>
+        <v>0.01020441395681579</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003131806444195159</v>
+        <v>0.003091834470976416</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02417140328879665</v>
+        <v>0.02687288836378325</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -10276,19 +10276,19 @@
         <v>7825</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4695</v>
+        <v>4383</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12514</v>
+        <v>12950</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01710417116475959</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01026243192121593</v>
+        <v>0.009579716573952199</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02735308438459368</v>
+        <v>0.02830603803667617</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>18</v>
@@ -10297,7 +10297,7 @@
         <v>10983</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6618</v>
+        <v>6598</v>
       </c>
       <c r="T30" s="5" t="n">
         <v>17424</v>
@@ -10306,10 +10306,10 @@
         <v>0.01431989967634814</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.008628881917490398</v>
+        <v>0.008602412946055285</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02271693917603869</v>
+        <v>0.02271774952706322</v>
       </c>
     </row>
     <row r="31">
@@ -10401,19 +10401,19 @@
         <v>3195178</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3157007</v>
+        <v>3157222</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3231339</v>
+        <v>3230832</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9091460252614817</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8982849205761915</v>
+        <v>0.8983459329859443</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9194350832490683</v>
+        <v>0.9192907616231694</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4814</v>
@@ -10422,19 +10422,19 @@
         <v>3337805</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3302405</v>
+        <v>3307721</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3369432</v>
+        <v>3371829</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9001375775062438</v>
+        <v>0.9001375775062439</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8905909359810013</v>
+        <v>0.8920245427785171</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9086668707865232</v>
+        <v>0.9093131744155369</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7876</v>
@@ -10443,19 +10443,19 @@
         <v>6532984</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6480530</v>
+        <v>6478668</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6581108</v>
+        <v>6581549</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9045210527235373</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8972585606617293</v>
+        <v>0.8970008362622321</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9111841307507393</v>
+        <v>0.911245102987158</v>
       </c>
     </row>
     <row r="33">
@@ -10472,19 +10472,19 @@
         <v>250664</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>219966</v>
+        <v>218745</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>284071</v>
+        <v>286850</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0713230402596938</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0625883926952889</v>
+        <v>0.06224107814266409</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08082859811385922</v>
+        <v>0.08161934860454075</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>401</v>
@@ -10493,19 +10493,19 @@
         <v>289059</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>259103</v>
+        <v>259011</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>321170</v>
+        <v>318371</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.07795321410250067</v>
+        <v>0.07795321410250068</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06987468338700936</v>
+        <v>0.06984996374814932</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08661302512011532</v>
+        <v>0.08585813191033438</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>641</v>
@@ -10514,19 +10514,19 @@
         <v>539722</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>499753</v>
+        <v>498150</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>587046</v>
+        <v>588748</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07472699760927717</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06919307230150158</v>
+        <v>0.0689711073574835</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08127923040486545</v>
+        <v>0.0815147745130665</v>
       </c>
     </row>
     <row r="34">
@@ -10543,19 +10543,19 @@
         <v>68641</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>51799</v>
+        <v>52124</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>89050</v>
+        <v>90802</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01953093447882457</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01473863682658013</v>
+        <v>0.01483112481977732</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02533794617847088</v>
+        <v>0.02583642953621962</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>111</v>
@@ -10564,19 +10564,19 @@
         <v>81242</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>66211</v>
+        <v>65903</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>97082</v>
+        <v>98829</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.02190920839125543</v>
+        <v>0.02190920839125544</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01785587925696757</v>
+        <v>0.01777264569445527</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02618101082017088</v>
+        <v>0.02665216182149488</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>170</v>
@@ -10585,19 +10585,19 @@
         <v>149883</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>124475</v>
+        <v>127279</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>174948</v>
+        <v>176670</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02075194966718564</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01723418506779883</v>
+        <v>0.01762237718052254</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02422237324322346</v>
+        <v>0.02446069087037678</v>
       </c>
     </row>
     <row r="35">
